--- a/00文审机数值/G-公共配置表.xlsx
+++ b/00文审机数值/G-公共配置表.xlsx
@@ -43,7 +43,33 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>存钱罐只储存金币</t>
+          <t>存钱罐只储存金币
+#singleBetAmount代表推币机单次投币所花费的金币
+#saveAdd代表VIP表中的存钱罐存储加成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>#capAdd代表VIP表中的存钱罐容量加成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>#collectAdd代表VIP表中的存钱罐领取加成</t>
         </r>
       </text>
     </comment>
@@ -84,12 +110,24 @@
         </r>
       </text>
     </comment>
+    <comment ref="C13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>#rechargeCoinNum代表玩家充值后获得的金币</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Key</t>
   </si>
@@ -124,21 +162,27 @@
     <t>piggyBankStorage</t>
   </si>
   <si>
-    <t>#singleBetAmount*(1%+#)</t>
-  </si>
-  <si>
-    <t>存钱罐收集公式：单次押注额*(1%+VIP加成)</t>
+    <t>#singleBetAmount*(0.1+#saveAdd)</t>
+  </si>
+  <si>
+    <t>存钱罐收集公式：单次金币花费*(1%+VIP加成)</t>
   </si>
   <si>
     <t>piggyBankMax</t>
   </si>
   <si>
-    <t>存钱罐收集上限公式：MAX（1000+VIP额外容量）</t>
+    <t>1000+1000*#capAdd</t>
+  </si>
+  <si>
+    <t>存钱罐收集上限公式：1000+VIP额外容量</t>
   </si>
   <si>
     <t>piggyBankCollect</t>
   </si>
   <si>
+    <t>#piggybankBalance*(1+#collectAdd)</t>
+  </si>
+  <si>
     <t>存钱罐领取公式：存钱罐当前金币*（1+VIP加成）</t>
   </si>
   <si>
@@ -170,6 +214,27 @@
   </si>
   <si>
     <t>玩家下机不换成小票而是直接兑换成金币的最高使用率</t>
+  </si>
+  <si>
+    <t>inviteCoinReward</t>
+  </si>
+  <si>
+    <t>邀请金币奖励</t>
+  </si>
+  <si>
+    <t>inviterCoinBackRecharge</t>
+  </si>
+  <si>
+    <t>#rechargeCoinNum*0.05</t>
+  </si>
+  <si>
+    <t>邀请后充值返利奖励</t>
+  </si>
+  <si>
+    <t>maxViewDuration</t>
+  </si>
+  <si>
+    <t>单次围观时间上限（：秒）</t>
   </si>
 </sst>
 </file>
@@ -347,14 +412,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -867,7 +932,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1206,7 +1271,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1284,8 +1349,11 @@
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
         <v>10002</v>
@@ -1295,10 +1363,13 @@
     </row>
     <row r="6" s="4" customFormat="1" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
         <v>10003</v>
@@ -1308,13 +1379,13 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
         <v>10004</v>
@@ -1323,13 +1394,13 @@
     </row>
     <row r="8" s="4" customFormat="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
         <v>10005</v>
@@ -1338,13 +1409,13 @@
     </row>
     <row r="9" s="4" customFormat="1" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4">
         <v>200</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7">
         <v>10006</v>
@@ -1352,13 +1423,13 @@
     </row>
     <row r="10" s="4" customFormat="1" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4">
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
         <v>10007</v>
@@ -1366,23 +1437,60 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="10">
         <v>0.1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
         <v>10008</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" spans="4:4">
-      <c r="D12" s="7"/>
+    <row r="12" s="4" customFormat="1" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4">
+        <v>500</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10009</v>
+      </c>
     </row>
-    <row r="13" s="4" customFormat="1"/>
-    <row r="14" s="4" customFormat="1"/>
+    <row r="13" s="4" customFormat="1" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7">
+        <v>10011</v>
+      </c>
+    </row>
     <row r="15" s="4" customFormat="1"/>
     <row r="16" s="4" customFormat="1"/>
     <row r="17" s="4" customFormat="1"/>

--- a/00文审机数值/G-公共配置表.xlsx
+++ b/00文审机数值/G-公共配置表.xlsx
@@ -57,25 +57,28 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="微软雅黑"/>
             <charset val="134"/>
           </rPr>
-          <t>WIN:</t>
+          <t xml:space="preserve">WIN:
+</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="微软雅黑"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-需考虑程序是否可以解析此类公式</t>
+~XXX  代表此表中的全局变量
+＄XXX 代表其他数值表中的字段名
+#XXX  代表游戏中的实时数据</t>
         </r>
       </text>
     </comment>
@@ -89,7 +92,7 @@
           </rPr>
           <t>存钱罐只储存金币
 #singleBetAmount代表推币机单次投币所花费的金币
-#saveAdd代表VIP表中的存钱罐存储加成</t>
+$saveAdd代表VIP表中的存钱罐存储加成</t>
         </r>
       </text>
     </comment>
@@ -101,7 +104,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>#capAdd代表VIP表中的存钱罐容量加成</t>
+          <t>$capAdd代表VIP表中的存钱罐容量加成</t>
         </r>
       </text>
     </comment>
@@ -113,7 +116,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>#collectAdd代表VIP表中的存钱罐领取加成</t>
+          <t>$collectAdd代表VIP表中的存钱罐领取加成
+#piggybankBalance代表玩家当前存钱罐余额</t>
         </r>
       </text>
     </comment>
@@ -147,7 +151,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-#minicoinAdd代表VIP低保加成</t>
+$minicoinAdd代表VIP低保加成</t>
         </r>
       </text>
     </comment>
@@ -267,7 +271,7 @@
     <t>piggyBankStorage</t>
   </si>
   <si>
-    <t>#singleBetAmount*(0.01+#saveAdd)</t>
+    <t>#singleBetAmount*(0.01+$saveAdd)</t>
   </si>
   <si>
     <t>存钱罐收集公式：单次金币花费*(1%+VIP加成)</t>
@@ -276,7 +280,7 @@
     <t>piggyBankMax</t>
   </si>
   <si>
-    <t>1000+1000*#capAdd</t>
+    <t>1000+1000*$capAdd</t>
   </si>
   <si>
     <t>存钱罐收集上限公式：1000+VIP额外容量</t>
@@ -285,7 +289,7 @@
     <t>piggyBankCollect</t>
   </si>
   <si>
-    <t>#piggybankBalance*(1+#collectAdd)</t>
+    <t>#piggybankBalance*(1+$collectAdd)</t>
   </si>
   <si>
     <t>存钱罐领取公式：存钱罐当前金币*（1+VIP加成）</t>
@@ -306,7 +310,7 @@
     <t>lowIncomeAdReward</t>
   </si>
   <si>
-    <t>200*#minicoinAdd</t>
+    <t>200*$minicoinAdd</t>
   </si>
   <si>
     <t>低保广告领取的金币数</t>
@@ -388,7 +392,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,19 +557,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -576,9 +592,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1420,10 +1435,10 @@
   <sheetPr/>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>

--- a/00文审机数值/G-公共配置表.xlsx
+++ b/00文审机数值/G-公共配置表.xlsx
@@ -63,7 +63,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="微软雅黑"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">WIN:
@@ -72,13 +72,22 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <rFont val="微软雅黑"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-~XXX  代表此表中的全局变量
+          <t xml:space="preserve">~XXX  代表此表中的全局变量
 ＄XXX 代表其他数值表中的字段名
-#XXX  代表游戏中的实时数据</t>
+#XXX  代表游戏中的实时数据
+</t>
         </r>
       </text>
     </comment>
@@ -186,8 +195,9 @@
             <rFont val="微软雅黑"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">例如：假如最高使用率为0.1，玩家进入房间用100币购买了10000弹药，比例为1：100，但是玩家只使用了500弹药（不管这500弹药的产出），使用的部分没有超过全部的10%，那么玩家剩下的9500弹药不会兑换成小票，而是依旧按100：1的比例兑换回95金币。
-（有小数点向下取整）
+          <t xml:space="preserve">例如：假如最高使用率为 10%，小票换金币的比例为 110:100，玩家进入房间用 100 币购买了 10000 弹药。如果玩家只使用了 500 弹药 ( 不管这 500 弹药的产出 )，那么使用的部分就没有全部弹药的 10%，那么玩家剩余的 9500 弹药就直接按 100:1 的比例返回能兑换成总计 95 金币的小票
+(约为104.5，即104.5:95=110:100)
+(有小数点向下取整)
 </t>
         </r>
         <r>
@@ -198,7 +208,7 @@
             <rFont val="微软雅黑"/>
             <charset val="134"/>
           </rPr>
-          <t>后期需要考虑玩家卡着10%反复进出房间，躲避小票兑换金币的消耗</t>
+          <t xml:space="preserve">后期需要考虑玩家卡着10%反复进出房间，躲避小票兑换金币的消耗 </t>
         </r>
       </text>
     </comment>
@@ -337,7 +347,7 @@
     <t>exchangeCoinThreshold</t>
   </si>
   <si>
-    <t>玩家下机不换成小票而是直接兑换成金币的最高使用率</t>
+    <t>玩家下机规避金币小票兑换损耗的最高使用率</t>
   </si>
   <si>
     <t>inviteCoinReward</t>
@@ -392,7 +402,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,36 +567,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>

--- a/00文审机数值/G-公共配置表.xlsx
+++ b/00文审机数值/G-公共配置表.xlsx
@@ -567,30 +567,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -1439,10 +1439,10 @@
   <sheetPr/>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>

--- a/00文审机数值/G-公共配置表.xlsx
+++ b/00文审机数值/G-公共配置表.xlsx
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -390,6 +390,42 @@
   </si>
   <si>
     <t>Jackpot大转盘公共头奖奖池初始数额</t>
+  </si>
+  <si>
+    <t>jpGodLeaderboardContent</t>
+  </si>
+  <si>
+    <t>玩家在推币机中累积的JP积分越多排名越靠前</t>
+  </si>
+  <si>
+    <t>JP大神排行榜跑马灯内容</t>
+  </si>
+  <si>
+    <t>tuiBiMasterLeaderboardContent</t>
+  </si>
+  <si>
+    <t>玩家在推币机中赢得的小票数量越多排名越靠前</t>
+  </si>
+  <si>
+    <t>推币大师排行榜跑马灯内容</t>
+  </si>
+  <si>
+    <t>renQiDaRenLeaderboardContent</t>
+  </si>
+  <si>
+    <t>玩家在社区帖子、排行榜、游戏中获得的点赞总数越多排名越靠前</t>
+  </si>
+  <si>
+    <t>人气达人排行榜跑马灯内容</t>
+  </si>
+  <si>
+    <t>chuanQiFuHaoLeaderboardContent</t>
+  </si>
+  <si>
+    <t>玩家当前持有的金币+小票总价值越高排名越靠前</t>
+  </si>
+  <si>
+    <t>传奇富豪排行榜跑马灯内容</t>
   </si>
 </sst>
 </file>
@@ -567,19 +603,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1442,7 +1478,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1747,12 +1783,62 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1"/>
-    <row r="21" s="4" customFormat="1"/>
-    <row r="22" s="4" customFormat="1" spans="3:3">
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" s="4" customFormat="1"/>
+    <row r="20" s="4" customFormat="1" spans="1:4">
+      <c r="A20" s="4">
+        <v>10017</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="1" spans="1:4">
+      <c r="A21" s="4">
+        <v>10018</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" s="4" customFormat="1" spans="1:4">
+      <c r="A22" s="4">
+        <v>10019</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" s="4" customFormat="1" spans="1:4">
+      <c r="A23" s="4">
+        <v>10020</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="24" s="4" customFormat="1"/>
     <row r="25" s="4" customFormat="1"/>
     <row r="26" s="4" customFormat="1"/>

--- a/00文审机数值/G-公共配置表.xlsx
+++ b/00文审机数值/G-公共配置表.xlsx
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -426,6 +426,30 @@
   </si>
   <si>
     <t>传奇富豪排行榜跑马灯内容</t>
+  </si>
+  <si>
+    <t>jpGodLeaderboardNum</t>
+  </si>
+  <si>
+    <t>JP大神排行榜显示玩家人数</t>
+  </si>
+  <si>
+    <t>tuiBiMasterLeaderboardNum</t>
+  </si>
+  <si>
+    <t>推币大师排行榜显示玩家人数</t>
+  </si>
+  <si>
+    <t>renQiDaRenLeaderboardNum</t>
+  </si>
+  <si>
+    <t>人气达人排行榜显示玩家人数</t>
+  </si>
+  <si>
+    <t>chuanQiFuHaoLeaderboardNum</t>
+  </si>
+  <si>
+    <t>传奇富豪排行榜显示玩家人数</t>
   </si>
 </sst>
 </file>
@@ -614,26 +638,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1478,7 +1502,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1839,11 +1863,61 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1"/>
-    <row r="25" s="4" customFormat="1"/>
-    <row r="26" s="4" customFormat="1"/>
-    <row r="27" s="4" customFormat="1" spans="4:4">
-      <c r="D27" s="6"/>
+    <row r="24" s="4" customFormat="1" spans="1:4">
+      <c r="A24" s="4">
+        <v>10021</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1" spans="1:4">
+      <c r="A25" s="4">
+        <v>10022</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="4">
+        <v>20</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:4">
+      <c r="A26" s="4">
+        <v>10023</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="4">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" spans="1:4">
+      <c r="A27" s="4">
+        <v>10024</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="4">
+        <v>20</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="28" s="4" customFormat="1"/>
     <row r="29" s="4" customFormat="1"/>
